--- a/docs/odh/odh-EmployerPerson-model.xlsx
+++ b/docs/odh/odh-EmployerPerson-model.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$26</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="142">
   <si>
     <t>Path</t>
   </si>
@@ -143,7 +143,7 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Metadata-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Metadata-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -160,10 +160,6 @@
     <t>A human language, spoken or written.</t>
   </si>
   <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0023008
-</t>
-  </si>
-  <si>
     <t>odh-EmployerPerson-model.implicitRules</t>
   </si>
   <si>
@@ -177,7 +173,7 @@
     <t>odh-EmployerPerson-model.narrative</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Narrative-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Narrative-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -190,55 +186,230 @@
     <t>A state that relates to the workflow or interpretation of this resource. Certain status values can modify the meaning of the resource, for example, entered-in-error. When a boolean value is used, Status of true indicates the record is active, false means inactive.</t>
   </si>
   <si>
+    <t>odh-EmployerPerson-model.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Identifier-model {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Business identifier or external id for this resource.</t>
+  </si>
+  <si>
+    <t>odh-EmployerPerson-model.active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Whether the record is in use (true) or retired (false).</t>
+  </si>
+  <si>
+    <t>odh-EmployerPerson-model.patient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Patient-model]]}
+</t>
+  </si>
+  <si>
+    <t>A person in the role of a patient. Sometimes, the patient is not the subject of information in a clinical statement where the Patient is the SubjectOfRecord.</t>
+  </si>
+  <si>
+    <t>A person in the role of a patient. Sometimes, the patient is not the subject of information in a clinical statement where the Patient is the SubjectOfRecord.
+SHR follows Argonaut and makes the value set binding on marital status required. MaritalStatus has a required binding in Argonaut, but an extensible binding in US-Core. To be feasible under both DSTU2 Argonaut and STU3 US-Core, the required binding strength is adopted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C1299487
+</t>
+  </si>
+  <si>
+    <t>odh-EmployerPerson-model.relationship</t>
+  </si>
+  <si>
+    <t>A description of the association between people or items.</t>
+  </si>
+  <si>
+    <t>odh-EmployerPerson-model.relationship.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>odh-EmployerPerson-model.relationship.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>odh-EmployerPerson-model.relationship.system</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should de-reference to some definition that establish the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/v2/0131"/&gt;</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>odh-EmployerPerson-model.relationship.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured. and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>odh-EmployerPerson-model.relationship.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="E"/&gt;</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>odh-EmployerPerson-model.relationship.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>odh-EmployerPerson-model.relationship.userSelected</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - i.e. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>odh-EmployerPerson-model.humanName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-HumanName-model {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A name used by a human being, written as it would be typically expressed. May include a breakdown of the various elements of the name (family name, given name, etc.).</t>
+  </si>
+  <si>
+    <t>odh-EmployerPerson-model.contactPoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-ContactPoint-model {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>An electronic means of contacting an organization or individual.</t>
+  </si>
+  <si>
+    <t>odh-EmployerPerson-model.administrativeGender</t>
+  </si>
+  <si>
+    <t>A gender classification used for administrative purposes. Administrative gender is not necessarily the same as a biological description or a gender identity. This attribute does not include terms related to clinical gender.</t>
+  </si>
+  <si>
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/odh/shr/core/vs/ActiveOrInactiveVS</t>
-  </si>
-  <si>
-    <t>odh-EmployerPerson-model.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Identifier-model {[]} {[]}
+    <t>http://hl7.org/fhir/ValueSet/administrative-gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C1550327
 </t>
   </si>
   <si>
-    <t>Business identifier or external id for this resource.</t>
-  </si>
-  <si>
-    <t>odh-EmployerPerson-model.person</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Person-model {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>A person relevant to the health or social situation of the subject (including the subject him- or herself).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0027361
-</t>
-  </si>
-  <si>
-    <t>odh-EmployerPerson-model.person.humanName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-HumanName-model {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>A name used by a human being, written as it would be typically expressed. May include a breakdown of the various elements of the name (family name, given name, etc.).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C1547383
-</t>
-  </si>
-  <si>
-    <t>odh-EmployerPerson-model.person.dateOfBirth[x]</t>
+    <t>odh-EmployerPerson-model.birthDate[x]</t>
   </si>
   <si>
     <t>date {[]} {[]}
-http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-TimePeriod-model {[]} {[]}</t>
+http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-TimePeriod-model {[]} {[]}</t>
   </si>
   <si>
     <t>A date of birth or approximate year or period (year or date range), if estimated.</t>
@@ -248,37 +419,20 @@
 http://loinc.org#21112-8</t>
   </si>
   <si>
-    <t>odh-EmployerPerson-model.person.administrativeGender</t>
-  </si>
-  <si>
-    <t>A gender classification used for administrative purposes. Administrative gender is not necessarily the same as a biological description or a gender identity. This attribute does not include terms related to clinical gender.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/administrative-gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C1550327
+    <t>odh-EmployerPerson-model.address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Address-model {[]} {[]}
 </t>
   </si>
   <si>
-    <t>odh-EmployerPerson-model.person.address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Address-model {[]} {[]}
-</t>
-  </si>
-  <si>
     <t>An address expressed using postal conventions (as opposed to GPS or other location definition formats). This data type may be used to convey addresses for use in delivering mail as well as for visiting locations and which might not be valid for mail delivery. There are a variety of postal address formats defined around the world. (Source: HL7 FHIR).</t>
   </si>
   <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0682130
-</t>
-  </si>
-  <si>
-    <t>odh-EmployerPerson-model.person.photographicImage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-PhotographicImage-model {[]} {[]}
+    <t>odh-EmployerPerson-model.photographicImage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-PhotographicImage-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -289,265 +443,10 @@
 </t>
   </si>
   <si>
-    <t>odh-EmployerPerson-model.person.contactPoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ContactPoint-model {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>An electronic means of contacting an organization or individual.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C2986441
-</t>
-  </si>
-  <si>
-    <t>odh-EmployerPerson-model.person.communication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Communication-model {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Language used for communication by a human, either the subject of record, parent, or other involved person.</t>
-  </si>
-  <si>
-    <t>odh-EmployerPerson-model.person.maritalStatus</t>
-  </si>
-  <si>
-    <t>The most recent marital status of a person.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/marital-status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0024819
-</t>
-  </si>
-  <si>
-    <t>odh-EmployerPerson-model.person.multipleBirth[x]</t>
-  </si>
-  <si>
-    <t>boolean {[]} {[]}
-integer {[]} {[]}</t>
-  </si>
-  <si>
-    <t>If the person was part of a multiple birth event, and if so in which order.</t>
-  </si>
-  <si>
-    <t>odh-EmployerPerson-model.person.birthSex</t>
-  </si>
-  <si>
-    <t>Administrative sex assigned at birth and recorded on birth certificate.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-birthsex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C4086849
-</t>
-  </si>
-  <si>
-    <t>odh-EmployerPerson-model.person.race</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Race-model {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Subjective association of a person with a named category of humans sharing common history, traits, place of family origin, nationality, tribe, or other inherited background.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0034510
-</t>
-  </si>
-  <si>
-    <t>odh-EmployerPerson-model.person.ethnicity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Ethnicity-model {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Indicator of Hispanic or Latino origin.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0015031
-</t>
-  </si>
-  <si>
-    <t>odh-EmployerPerson-model.person.deceased[x]</t>
-  </si>
-  <si>
-    <t>boolean {[]} {[]}
-dateTime {[]} {[]}</t>
-  </si>
-  <si>
-    <t>An indication that the person is no longer living, given by a date of death, or boolean value. The latter, when true, indicates the person is deceased.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0011065
-</t>
-  </si>
-  <si>
-    <t>odh-EmployerPerson-model.relationshipToPatient</t>
-  </si>
-  <si>
-    <t>The relationship to the person of record.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ncimeta.nci.nih.gov#C0015608
-</t>
-  </si>
-  <si>
-    <t>odh-EmployerPerson-model.relationshipToPatient.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>odh-EmployerPerson-model.relationshipToPatient.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>odh-EmployerPerson-model.relationshipToPatient.system</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should de-reference to some definition that establish the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>&lt;valueUri xmlns="http://hl7.org/fhir" value="http://hl7.org/fhir/v2/0131"/&gt;</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>odh-EmployerPerson-model.relationshipToPatient.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured. and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>odh-EmployerPerson-model.relationshipToPatient.code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>&lt;valueCode xmlns="http://hl7.org/fhir" value="E"/&gt;</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>odh-EmployerPerson-model.relationshipToPatient.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>odh-EmployerPerson-model.relationshipToPatient.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - i.e. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
     <t>odh-EmployerPerson-model.effectiveTimePeriod</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-EffectiveTimePeriod-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-EffectiveTimePeriod-model {[]} {[]}
 </t>
   </si>
   <si>
@@ -556,6 +455,16 @@
   <si>
     <t xml:space="preserve">http://ncimeta.nci.nih.gov#C2985763
 </t>
+  </si>
+  <si>
+    <t>odh-EmployerPerson-model.communication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Communication-model {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Language used for communication by a human, either the subject of record, parent, or other involved person.</t>
   </si>
 </sst>
 </file>
@@ -704,7 +613,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ31"/>
+  <dimension ref="A1:AI26"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -713,7 +622,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="58.12890625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="49.48046875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -737,13 +646,13 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.56640625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="46.80859375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="55.05078125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="53.0546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="46.3046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
@@ -1116,7 +1025,7 @@
         <v>36</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="AA4" t="s" s="2">
         <v>36</v>
@@ -1148,7 +1057,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1171,13 +1080,13 @@
         <v>36</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>49</v>
       </c>
-      <c r="K5" t="s" s="2">
-        <v>50</v>
-      </c>
       <c r="L5" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1228,7 +1137,7 @@
         <v>36</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>37</v>
@@ -1245,7 +1154,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1268,13 +1177,13 @@
         <v>36</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="K6" t="s" s="2">
-        <v>53</v>
-      </c>
       <c r="L6" t="s" s="2">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1325,7 +1234,7 @@
         <v>36</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>37</v>
@@ -1342,7 +1251,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1353,7 +1262,7 @@
         <v>37</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>36</v>
@@ -1368,10 +1277,10 @@
         <v>45</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1398,11 +1307,13 @@
         <v>36</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="X7" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y7" t="s" s="2">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="Z7" t="s" s="2">
         <v>36</v>
@@ -1420,13 +1331,13 @@
         <v>36</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>36</v>
@@ -1437,7 +1348,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1460,13 +1371,13 @@
         <v>36</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1517,7 +1428,7 @@
         <v>36</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>37</v>
@@ -1534,7 +1445,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1557,13 +1468,13 @@
         <v>36</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1599,7 +1510,7 @@
         <v>36</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="AA9" t="s" s="2">
         <v>36</v>
@@ -1614,7 +1525,7 @@
         <v>36</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>37</v>
@@ -1631,7 +1542,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1654,13 +1565,13 @@
         <v>36</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1696,7 +1607,7 @@
         <v>36</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>36</v>
@@ -1711,13 +1622,13 @@
         <v>36</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH10" t="s" s="2">
         <v>36</v>
@@ -1728,7 +1639,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1736,7 +1647,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>41</v>
@@ -1751,13 +1662,13 @@
         <v>36</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1793,7 +1704,7 @@
         <v>36</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>36</v>
@@ -1808,10 +1719,10 @@
         <v>36</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>41</v>
@@ -1825,7 +1736,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1833,7 +1744,7 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>41</v>
@@ -1848,13 +1759,13 @@
         <v>36</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1881,14 +1792,16 @@
         <v>36</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="X12" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X12" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y12" t="s" s="2">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>36</v>
@@ -1903,10 +1816,10 @@
         <v>36</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>41</v>
@@ -1920,7 +1833,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -1943,15 +1856,17 @@
         <v>36</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="M13" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="M13" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>36</v>
@@ -1985,22 +1900,22 @@
         <v>36</v>
       </c>
       <c r="Z13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD13" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AA13" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>36</v>
-      </c>
       <c r="AE13" t="s" s="2">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>37</v>
@@ -2017,7 +1932,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2025,10 +1940,10 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>36</v>
@@ -2037,25 +1952,29 @@
         <v>36</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>87</v>
+      </c>
       <c r="O14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="R14" t="s" s="2">
         <v>36</v>
@@ -2082,7 +2001,7 @@
         <v>36</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>36</v>
@@ -2097,13 +2016,13 @@
         <v>36</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>36</v>
@@ -2114,7 +2033,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2125,7 +2044,7 @@
         <v>37</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>36</v>
@@ -2134,18 +2053,20 @@
         <v>36</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="M15" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>93</v>
+      </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>36</v>
@@ -2179,7 +2100,7 @@
         <v>36</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>36</v>
@@ -2194,13 +2115,13 @@
         <v>36</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>36</v>
@@ -2211,7 +2132,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2219,10 +2140,10 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>36</v>
@@ -2231,25 +2152,27 @@
         <v>36</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
+      <c r="N16" t="s" s="2">
+        <v>99</v>
+      </c>
       <c r="O16" t="s" s="2">
         <v>36</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="R16" t="s" s="2">
         <v>36</v>
@@ -2291,13 +2214,13 @@
         <v>36</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>36</v>
@@ -2308,7 +2231,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2328,19 +2251,21 @@
         <v>36</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+      <c r="N17" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="O17" t="s" s="2">
         <v>36</v>
       </c>
@@ -2364,14 +2289,16 @@
         <v>36</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="X17" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y17" t="s" s="2">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>36</v>
@@ -2386,7 +2313,7 @@
         <v>36</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>37</v>
@@ -2403,7 +2330,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2423,19 +2350,23 @@
         <v>36</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>97</v>
+        <v>59</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>111</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>36</v>
       </c>
@@ -2483,7 +2414,7 @@
         <v>36</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>37</v>
@@ -2500,7 +2431,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2523,13 +2454,13 @@
         <v>36</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2556,14 +2487,16 @@
         <v>36</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>56</v>
-      </c>
-      <c r="X19" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y19" t="s" s="2">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>36</v>
@@ -2578,7 +2511,7 @@
         <v>36</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>37</v>
@@ -2595,7 +2528,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2606,7 +2539,7 @@
         <v>37</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>36</v>
@@ -2618,13 +2551,13 @@
         <v>36</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2660,7 +2593,7 @@
         <v>36</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>106</v>
+        <v>36</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>36</v>
@@ -2675,13 +2608,13 @@
         <v>36</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>36</v>
@@ -2692,7 +2625,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2715,13 +2648,13 @@
         <v>36</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2748,16 +2681,14 @@
         <v>36</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="X21" s="2"/>
       <c r="Y21" t="s" s="2">
-        <v>36</v>
+        <v>122</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>36</v>
@@ -2772,7 +2703,7 @@
         <v>36</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>37</v>
@@ -2789,7 +2720,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -2812,13 +2743,13 @@
         <v>36</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -2854,7 +2785,7 @@
         <v>36</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>36</v>
@@ -2869,7 +2800,7 @@
         <v>36</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>37</v>
@@ -2886,7 +2817,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -2894,10 +2825,10 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>36</v>
@@ -2909,13 +2840,13 @@
         <v>36</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -2951,7 +2882,7 @@
         <v>36</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>36</v>
@@ -2966,13 +2897,13 @@
         <v>36</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>36</v>
@@ -2983,7 +2914,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -2994,7 +2925,7 @@
         <v>37</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>36</v>
@@ -3006,13 +2937,13 @@
         <v>36</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3048,7 +2979,7 @@
         <v>36</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>36</v>
+        <v>134</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>36</v>
@@ -3063,13 +2994,13 @@
         <v>36</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>36</v>
@@ -3080,7 +3011,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3091,7 +3022,7 @@
         <v>37</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>36</v>
@@ -3103,17 +3034,15 @@
         <v>36</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>127</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>36</v>
@@ -3147,28 +3076,28 @@
         <v>36</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>36</v>
+        <v>138</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>128</v>
+        <v>36</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>129</v>
+        <v>36</v>
       </c>
       <c r="AC25" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>130</v>
+        <v>36</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>36</v>
@@ -3179,7 +3108,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3187,10 +3116,10 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>36</v>
@@ -3199,29 +3128,25 @@
         <v>36</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>49</v>
+        <v>140</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>36</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>138</v>
+        <v>36</v>
       </c>
       <c r="R26" t="s" s="2">
         <v>36</v>
@@ -3269,512 +3194,17 @@
         <v>37</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" hidden="true">
-      <c r="A27" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G27" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="J27" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="K27" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R27" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S27" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T27" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" hidden="true">
-      <c r="A28" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F28" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G28" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="J28" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="K28" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="R28" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S28" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="29" hidden="true">
-      <c r="A29" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G29" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="J29" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="K29" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P29" s="2"/>
-      <c r="Q29" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R29" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S29" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" hidden="true">
-      <c r="A30" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F30" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G30" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="J30" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="K30" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P30" s="2"/>
-      <c r="Q30" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R30" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S30" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T30" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" hidden="true">
-      <c r="A31" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="F31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="G31" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="J31" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="K31" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="R31" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="S31" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="T31" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AI31" t="s" s="2">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AI31">
+  <autoFilter ref="A1:AI26">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -3784,7 +3214,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI30">
+  <conditionalFormatting sqref="A2:AI25">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
